--- a/NewProbableCasesOverTimeByCounty/2021-02-12.xlsx
+++ b/NewProbableCasesOverTimeByCounty/2021-02-12.xlsx
@@ -12,9 +12,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="363">
   <si>
-    <t>COVID-19 New Probable Cases by County, 11/1/2020 - 02/11/2021 at 9:30 AM CST</t>
+    <t>COVID-19 New Probable Cases by County, 11/1/2020 - 02/12/2021 at 9:30 AM CST</t>
   </si>
   <si>
     <t>DISCLAIMER: All data are provisional and are subject to change.</t>
@@ -330,6 +330,9 @@
   </si>
   <si>
     <t>New Probable 2021-02-11</t>
+  </si>
+  <si>
+    <t>New Probable 2021-02-12</t>
   </si>
   <si>
     <t>Anderson</t>
@@ -1317,6 +1320,7 @@
     <col min="102" max="102" width="12.0" customWidth="true"/>
     <col min="103" max="103" width="12.0" customWidth="true"/>
     <col min="104" max="104" width="12.0" customWidth="true"/>
+    <col min="105" max="105" width="12.0" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1642,10 +1646,13 @@
       <c r="CZ3" t="s" s="10">
         <v>105</v>
       </c>
+      <c r="DA3" t="s" s="10">
+        <v>106</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
@@ -1955,11 +1962,14 @@
       </c>
       <c r="CZ4" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DA4" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
@@ -2268,12 +2278,15 @@
         <v>0.0</v>
       </c>
       <c r="CZ5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DA5" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
@@ -2582,12 +2595,15 @@
         <v>91.0</v>
       </c>
       <c r="CZ6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DA6" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B7" t="n">
         <v>0.0</v>
@@ -2897,11 +2913,14 @@
       </c>
       <c r="CZ7" t="n">
         <v>5.0</v>
+      </c>
+      <c r="DA7" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -3210,12 +3229,15 @@
         <v>-4.0</v>
       </c>
       <c r="CZ8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DA8" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B9" t="n">
         <v>0.0</v>
@@ -3524,12 +3546,15 @@
         <v>0.0</v>
       </c>
       <c r="CZ9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DA9" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B10" t="n">
         <v>0.0</v>
@@ -3838,12 +3863,15 @@
         <v>8.0</v>
       </c>
       <c r="CZ10" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="DA10" t="n">
         <v>9.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B11" t="n">
         <v>0.0</v>
@@ -4153,11 +4181,14 @@
       </c>
       <c r="CZ11" t="n">
         <v>2.0</v>
+      </c>
+      <c r="DA11" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B12" t="n">
         <v>0.0</v>
@@ -4467,11 +4498,14 @@
       </c>
       <c r="CZ12" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DA12" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B13" t="n">
         <v>0.0</v>
@@ -4781,11 +4815,14 @@
       </c>
       <c r="CZ13" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DA13" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B14" t="n">
         <v>0.0</v>
@@ -5095,11 +5132,14 @@
       </c>
       <c r="CZ14" t="n">
         <v>2.0</v>
+      </c>
+      <c r="DA14" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B15" t="n">
         <v>0.0</v>
@@ -5409,11 +5449,14 @@
       </c>
       <c r="CZ15" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DA15" t="n">
+        <v>-6.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B16" t="n">
         <v>0.0</v>
@@ -5723,11 +5766,14 @@
       </c>
       <c r="CZ16" t="n">
         <v>2.0</v>
+      </c>
+      <c r="DA16" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
@@ -6036,12 +6082,15 @@
         <v>0.0</v>
       </c>
       <c r="CZ17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DA17" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B18" t="n">
         <v>54.0</v>
@@ -6351,11 +6400,14 @@
       </c>
       <c r="CZ18" t="n">
         <v>167.0</v>
+      </c>
+      <c r="DA18" t="n">
+        <v>112.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B19" t="n">
         <v>0.0</v>
@@ -6665,11 +6717,14 @@
       </c>
       <c r="CZ19" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DA19" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B20" t="n">
         <v>0.0</v>
@@ -6978,12 +7033,15 @@
         <v>0.0</v>
       </c>
       <c r="CZ20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DA20" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B21" t="n">
         <v>0.0</v>
@@ -7292,12 +7350,15 @@
         <v>5.0</v>
       </c>
       <c r="CZ21" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DA21" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B22" t="n">
         <v>0.0</v>
@@ -7607,11 +7668,14 @@
       </c>
       <c r="CZ22" t="n">
         <v>10.0</v>
+      </c>
+      <c r="DA22" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B23" t="n">
         <v>0.0</v>
@@ -7921,11 +7985,14 @@
       </c>
       <c r="CZ23" t="n">
         <v>221.0</v>
+      </c>
+      <c r="DA23" t="n">
+        <v>-108.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B24" t="n">
         <v>0.0</v>
@@ -8235,11 +8302,14 @@
       </c>
       <c r="CZ24" t="n">
         <v>31.0</v>
+      </c>
+      <c r="DA24" t="n">
+        <v>33.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B25" t="n">
         <v>0.0</v>
@@ -8548,12 +8618,15 @@
         <v>0.0</v>
       </c>
       <c r="CZ25" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DA25" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B26" t="n">
         <v>0.0</v>
@@ -8862,12 +8935,15 @@
         <v>0.0</v>
       </c>
       <c r="CZ26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DA26" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B27" t="n">
         <v>0.0</v>
@@ -9177,11 +9253,14 @@
       </c>
       <c r="CZ27" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DA27" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B28" t="n">
         <v>0.0</v>
@@ -9490,12 +9569,15 @@
         <v>0.0</v>
       </c>
       <c r="CZ28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DA28" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B29" t="n">
         <v>0.0</v>
@@ -9804,12 +9886,15 @@
         <v>2.0</v>
       </c>
       <c r="CZ29" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DA29" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B30" t="n">
         <v>0.0</v>
@@ -10119,11 +10204,14 @@
       </c>
       <c r="CZ30" t="n">
         <v>11.0</v>
+      </c>
+      <c r="DA30" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B31" t="n">
         <v>0.0</v>
@@ -10432,12 +10520,15 @@
         <v>0.0</v>
       </c>
       <c r="CZ31" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DA31" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B32" t="n">
         <v>0.0</v>
@@ -10747,11 +10838,14 @@
       </c>
       <c r="CZ32" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DA32" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B33" t="n">
         <v>0.0</v>
@@ -11061,11 +11155,14 @@
       </c>
       <c r="CZ33" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DA33" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B34" t="n">
         <v>0.0</v>
@@ -11374,12 +11471,15 @@
         <v>0.0</v>
       </c>
       <c r="CZ34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DA34" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B35" t="n">
         <v>0.0</v>
@@ -11688,12 +11788,15 @@
         <v>0.0</v>
       </c>
       <c r="CZ35" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="DA35" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B36" t="n">
         <v>0.0</v>
@@ -12002,12 +12105,15 @@
         <v>0.0</v>
       </c>
       <c r="CZ36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DA36" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B37" t="n">
         <v>0.0</v>
@@ -12317,11 +12423,14 @@
       </c>
       <c r="CZ37" t="n">
         <v>4.0</v>
+      </c>
+      <c r="DA37" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B38" t="n">
         <v>0.0</v>
@@ -12630,12 +12739,15 @@
         <v>-1.0</v>
       </c>
       <c r="CZ38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DA38" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B39" t="n">
         <v>0.0</v>
@@ -12944,12 +13056,15 @@
         <v>0.0</v>
       </c>
       <c r="CZ39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DA39" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B40" t="n">
         <v>0.0</v>
@@ -13259,11 +13374,14 @@
       </c>
       <c r="CZ40" t="n">
         <v>10.0</v>
+      </c>
+      <c r="DA40" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B41" t="n">
         <v>0.0</v>
@@ -13573,11 +13691,14 @@
       </c>
       <c r="CZ41" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DA41" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B42" t="n">
         <v>0.0</v>
@@ -13887,11 +14008,14 @@
       </c>
       <c r="CZ42" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DA42" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B43" t="n">
         <v>0.0</v>
@@ -14200,12 +14324,15 @@
         <v>0.0</v>
       </c>
       <c r="CZ43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DA43" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B44" t="n">
         <v>0.0</v>
@@ -14515,11 +14642,14 @@
       </c>
       <c r="CZ44" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DA44" t="n">
+        <v>-1.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B45" t="n">
         <v>0.0</v>
@@ -14828,12 +14958,15 @@
         <v>0.0</v>
       </c>
       <c r="CZ45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DA45" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B46" t="n">
         <v>30.0</v>
@@ -15143,11 +15276,14 @@
       </c>
       <c r="CZ46" t="n">
         <v>118.0</v>
+      </c>
+      <c r="DA46" t="n">
+        <v>199.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B47" t="n">
         <v>0.0</v>
@@ -15456,12 +15592,15 @@
         <v>0.0</v>
       </c>
       <c r="CZ47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DA47" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B48" t="n">
         <v>0.0</v>
@@ -15771,11 +15910,14 @@
       </c>
       <c r="CZ48" t="n">
         <v>8.0</v>
+      </c>
+      <c r="DA48" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B49" t="n">
         <v>0.0</v>
@@ -16085,11 +16227,14 @@
       </c>
       <c r="CZ49" t="n">
         <v>20.0</v>
+      </c>
+      <c r="DA49" t="n">
+        <v>30.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B50" t="n">
         <v>0.0</v>
@@ -16399,11 +16544,14 @@
       </c>
       <c r="CZ50" t="n">
         <v>1.0</v>
+      </c>
+      <c r="DA50" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B51" t="n">
         <v>0.0</v>
@@ -16712,12 +16860,15 @@
         <v>1.0</v>
       </c>
       <c r="CZ51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DA51" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B52" t="n">
         <v>0.0</v>
@@ -17027,11 +17178,14 @@
       </c>
       <c r="CZ52" t="n">
         <v>2.0</v>
+      </c>
+      <c r="DA52" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B53" t="n">
         <v>0.0</v>
@@ -17341,11 +17495,14 @@
       </c>
       <c r="CZ53" t="n">
         <v>3.0</v>
+      </c>
+      <c r="DA53" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B54" t="n">
         <v>0.0</v>
@@ -17654,12 +17811,15 @@
         <v>0.0</v>
       </c>
       <c r="CZ54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DA54" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B55" t="n">
         <v>0.0</v>
@@ -17968,12 +18128,15 @@
         <v>1.0</v>
       </c>
       <c r="CZ55" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="DA55" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B56" t="n">
         <v>0.0</v>
@@ -18283,11 +18446,14 @@
       </c>
       <c r="CZ56" t="n">
         <v>7.0</v>
+      </c>
+      <c r="DA56" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B57" t="n">
         <v>0.0</v>
@@ -18596,12 +18762,15 @@
         <v>-1.0</v>
       </c>
       <c r="CZ57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DA57" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B58" t="n">
         <v>0.0</v>
@@ -18911,11 +19080,14 @@
       </c>
       <c r="CZ58" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DA58" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B59" t="n">
         <v>0.0</v>
@@ -19224,12 +19396,15 @@
         <v>0.0</v>
       </c>
       <c r="CZ59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DA59" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B60" t="n">
         <v>137.0</v>
@@ -19539,11 +19714,14 @@
       </c>
       <c r="CZ60" t="n">
         <v>213.0</v>
+      </c>
+      <c r="DA60" t="n">
+        <v>189.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B61" t="n">
         <v>0.0</v>
@@ -19852,12 +20030,15 @@
         <v>0.0</v>
       </c>
       <c r="CZ61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DA61" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B62" t="n">
         <v>0.0</v>
@@ -20166,12 +20347,15 @@
         <v>4.0</v>
       </c>
       <c r="CZ62" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="DA62" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B63" t="n">
         <v>0.0</v>
@@ -20480,12 +20664,15 @@
         <v>1.0</v>
       </c>
       <c r="CZ63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DA63" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B64" t="n">
         <v>23.0</v>
@@ -20795,11 +20982,14 @@
       </c>
       <c r="CZ64" t="n">
         <v>257.0</v>
+      </c>
+      <c r="DA64" t="n">
+        <v>269.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B65" t="n">
         <v>0.0</v>
@@ -21108,12 +21298,15 @@
         <v>0.0</v>
       </c>
       <c r="CZ65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DA65" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B66" t="n">
         <v>0.0</v>
@@ -21422,12 +21615,15 @@
         <v>1.0</v>
       </c>
       <c r="CZ66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DA66" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B67" t="n">
         <v>0.0</v>
@@ -21737,11 +21933,14 @@
       </c>
       <c r="CZ67" t="n">
         <v>5.0</v>
+      </c>
+      <c r="DA67" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B68" t="n">
         <v>0.0</v>
@@ -22050,12 +22249,15 @@
         <v>-3.0</v>
       </c>
       <c r="CZ68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DA68" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B69" t="n">
         <v>0.0</v>
@@ -22365,11 +22567,14 @@
       </c>
       <c r="CZ69" t="n">
         <v>1.0</v>
+      </c>
+      <c r="DA69" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B70" t="n">
         <v>0.0</v>
@@ -22679,11 +22884,14 @@
       </c>
       <c r="CZ70" t="n">
         <v>2.0</v>
+      </c>
+      <c r="DA70" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B71" t="n">
         <v>0.0</v>
@@ -22993,11 +23201,14 @@
       </c>
       <c r="CZ71" t="n">
         <v>196.0</v>
+      </c>
+      <c r="DA71" t="n">
+        <v>171.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B72" t="n">
         <v>0.0</v>
@@ -23306,12 +23517,15 @@
         <v>0.0</v>
       </c>
       <c r="CZ72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DA72" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B73" t="n">
         <v>0.0</v>
@@ -23621,11 +23835,14 @@
       </c>
       <c r="CZ73" t="n">
         <v>17.0</v>
+      </c>
+      <c r="DA73" t="n">
+        <v>19.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B74" t="n">
         <v>0.0</v>
@@ -23934,12 +24151,15 @@
         <v>0.0</v>
       </c>
       <c r="CZ74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DA74" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B75" t="n">
         <v>0.0</v>
@@ -24249,11 +24469,14 @@
       </c>
       <c r="CZ75" t="n">
         <v>2.0</v>
+      </c>
+      <c r="DA75" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B76" t="n">
         <v>0.0</v>
@@ -24563,11 +24786,14 @@
       </c>
       <c r="CZ76" t="n">
         <v>2.0</v>
+      </c>
+      <c r="DA76" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B77" t="n">
         <v>0.0</v>
@@ -24877,11 +25103,14 @@
       </c>
       <c r="CZ77" t="n">
         <v>4.0</v>
+      </c>
+      <c r="DA77" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B78" t="n">
         <v>0.0</v>
@@ -25191,11 +25420,14 @@
       </c>
       <c r="CZ78" t="n">
         <v>13.0</v>
+      </c>
+      <c r="DA78" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B79" t="n">
         <v>0.0</v>
@@ -25504,12 +25736,15 @@
         <v>0.0</v>
       </c>
       <c r="CZ79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DA79" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B80" t="n">
         <v>0.0</v>
@@ -25818,12 +26053,15 @@
         <v>7.0</v>
       </c>
       <c r="CZ80" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="DA80" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B81" t="n">
         <v>0.0</v>
@@ -26132,12 +26370,15 @@
         <v>0.0</v>
       </c>
       <c r="CZ81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DA81" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B82" t="n">
         <v>13.0</v>
@@ -26447,11 +26688,14 @@
       </c>
       <c r="CZ82" t="n">
         <v>90.0</v>
+      </c>
+      <c r="DA82" t="n">
+        <v>58.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B83" t="n">
         <v>0.0</v>
@@ -26760,12 +27004,15 @@
         <v>1.0</v>
       </c>
       <c r="CZ83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DA83" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B84" t="n">
         <v>0.0</v>
@@ -27075,11 +27322,14 @@
       </c>
       <c r="CZ84" t="n">
         <v>4.0</v>
+      </c>
+      <c r="DA84" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B85" t="n">
         <v>0.0</v>
@@ -27389,11 +27639,14 @@
       </c>
       <c r="CZ85" t="n">
         <v>2.0</v>
+      </c>
+      <c r="DA85" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B86" t="n">
         <v>0.0</v>
@@ -27702,12 +27955,15 @@
         <v>0.0</v>
       </c>
       <c r="CZ86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DA86" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B87" t="n">
         <v>0.0</v>
@@ -28017,11 +28273,14 @@
       </c>
       <c r="CZ87" t="n">
         <v>66.0</v>
+      </c>
+      <c r="DA87" t="n">
+        <v>42.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B88" t="n">
         <v>0.0</v>
@@ -28330,12 +28589,15 @@
         <v>0.0</v>
       </c>
       <c r="CZ88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DA88" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B89" t="n">
         <v>0.0</v>
@@ -28645,11 +28907,14 @@
       </c>
       <c r="CZ89" t="n">
         <v>2.0</v>
+      </c>
+      <c r="DA89" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B90" t="n">
         <v>0.0</v>
@@ -28958,12 +29223,15 @@
         <v>-2.0</v>
       </c>
       <c r="CZ90" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DA90" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B91" t="n">
         <v>0.0</v>
@@ -29272,12 +29540,15 @@
         <v>0.0</v>
       </c>
       <c r="CZ91" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DA91" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B92" t="n">
         <v>0.0</v>
@@ -29587,11 +29858,14 @@
       </c>
       <c r="CZ92" t="n">
         <v>3.0</v>
+      </c>
+      <c r="DA92" t="n">
+        <v>-1.0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B93" t="n">
         <v>0.0</v>
@@ -29901,11 +30175,14 @@
       </c>
       <c r="CZ93" t="n">
         <v>1.0</v>
+      </c>
+      <c r="DA93" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B94" t="n">
         <v>0.0</v>
@@ -30214,12 +30491,15 @@
         <v>0.0</v>
       </c>
       <c r="CZ94" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DA94" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B95" t="n">
         <v>0.0</v>
@@ -30529,11 +30809,14 @@
       </c>
       <c r="CZ95" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DA95" t="n">
+        <v>76.0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B96" t="n">
         <v>0.0</v>
@@ -30843,11 +31126,14 @@
       </c>
       <c r="CZ96" t="n">
         <v>2.0</v>
+      </c>
+      <c r="DA96" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B97" t="n">
         <v>0.0</v>
@@ -31157,11 +31443,14 @@
       </c>
       <c r="CZ97" t="n">
         <v>5.0</v>
+      </c>
+      <c r="DA97" t="n">
+        <v>20.0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B98" t="n">
         <v>0.0</v>
@@ -31470,12 +31759,15 @@
         <v>0.0</v>
       </c>
       <c r="CZ98" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DA98" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B99" t="n">
         <v>0.0</v>
@@ -31784,12 +32076,15 @@
         <v>-1.0</v>
       </c>
       <c r="CZ99" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DA99" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B100" t="n">
         <v>0.0</v>
@@ -32098,12 +32393,15 @@
         <v>0.0</v>
       </c>
       <c r="CZ100" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DA100" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B101" t="n">
         <v>0.0</v>
@@ -32413,11 +32711,14 @@
       </c>
       <c r="CZ101" t="n">
         <v>8.0</v>
+      </c>
+      <c r="DA101" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B102" t="n">
         <v>0.0</v>
@@ -32726,12 +33027,15 @@
         <v>0.0</v>
       </c>
       <c r="CZ102" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DA102" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B103" t="n">
         <v>11.0</v>
@@ -33040,12 +33344,15 @@
         <v>28.0</v>
       </c>
       <c r="CZ103" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DA103" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B104" t="n">
         <v>0.0</v>
@@ -33354,12 +33661,15 @@
         <v>0.0</v>
       </c>
       <c r="CZ104" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DA104" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B105" t="n">
         <v>0.0</v>
@@ -33669,11 +33979,14 @@
       </c>
       <c r="CZ105" t="n">
         <v>14.0</v>
+      </c>
+      <c r="DA105" t="n">
+        <v>19.0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B106" t="n">
         <v>0.0</v>
@@ -33982,12 +34295,15 @@
         <v>0.0</v>
       </c>
       <c r="CZ106" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DA106" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B107" t="n">
         <v>0.0</v>
@@ -34297,11 +34613,14 @@
       </c>
       <c r="CZ107" t="n">
         <v>3.0</v>
+      </c>
+      <c r="DA107" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B108" t="n">
         <v>0.0</v>
@@ -34611,11 +34930,14 @@
       </c>
       <c r="CZ108" t="n">
         <v>7.0</v>
+      </c>
+      <c r="DA108" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B109" t="n">
         <v>0.0</v>
@@ -34924,12 +35246,15 @@
         <v>0.0</v>
       </c>
       <c r="CZ109" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DA109" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B110" t="n">
         <v>0.0</v>
@@ -35239,11 +35564,14 @@
       </c>
       <c r="CZ110" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DA110" t="n">
+        <v>53.0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B111" t="n">
         <v>0.0</v>
@@ -35553,11 +35881,14 @@
       </c>
       <c r="CZ111" t="n">
         <v>266.0</v>
+      </c>
+      <c r="DA111" t="n">
+        <v>214.0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B112" t="n">
         <v>0.0</v>
@@ -35867,11 +36198,14 @@
       </c>
       <c r="CZ112" t="n">
         <v>4.0</v>
+      </c>
+      <c r="DA112" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B113" t="n">
         <v>0.0</v>
@@ -36181,11 +36515,14 @@
       </c>
       <c r="CZ113" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DA113" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B114" t="n">
         <v>0.0</v>
@@ -36495,11 +36832,14 @@
       </c>
       <c r="CZ114" t="n">
         <v>11.0</v>
+      </c>
+      <c r="DA114" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B115" t="n">
         <v>0.0</v>
@@ -36809,11 +37149,14 @@
       </c>
       <c r="CZ115" t="n">
         <v>6.0</v>
+      </c>
+      <c r="DA115" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B116" t="n">
         <v>0.0</v>
@@ -37123,11 +37466,14 @@
       </c>
       <c r="CZ116" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DA116" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B117" t="n">
         <v>0.0</v>
@@ -37437,11 +37783,14 @@
       </c>
       <c r="CZ117" t="n">
         <v>4.0</v>
+      </c>
+      <c r="DA117" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B118" t="n">
         <v>0.0</v>
@@ -37751,11 +38100,14 @@
       </c>
       <c r="CZ118" t="n">
         <v>2.0</v>
+      </c>
+      <c r="DA118" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B119" t="n">
         <v>0.0</v>
@@ -38064,12 +38416,15 @@
         <v>0.0</v>
       </c>
       <c r="CZ119" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DA119" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B120" t="n">
         <v>0.0</v>
@@ -38379,11 +38734,14 @@
       </c>
       <c r="CZ120" t="n">
         <v>2.0</v>
+      </c>
+      <c r="DA120" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B121" t="n">
         <v>0.0</v>
@@ -38693,11 +39051,14 @@
       </c>
       <c r="CZ121" t="n">
         <v>2.0</v>
+      </c>
+      <c r="DA121" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B122" t="n">
         <v>0.0</v>
@@ -39006,12 +39367,15 @@
         <v>0.0</v>
       </c>
       <c r="CZ122" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DA122" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B123" t="n">
         <v>0.0</v>
@@ -39321,11 +39685,14 @@
       </c>
       <c r="CZ123" t="n">
         <v>1.0</v>
+      </c>
+      <c r="DA123" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B124" t="n">
         <v>0.0</v>
@@ -39635,11 +40002,14 @@
       </c>
       <c r="CZ124" t="n">
         <v>8.0</v>
+      </c>
+      <c r="DA124" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B125" t="n">
         <v>0.0</v>
@@ -39948,12 +40318,15 @@
         <v>2.0</v>
       </c>
       <c r="CZ125" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DA125" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B126" t="n">
         <v>0.0</v>
@@ -40262,12 +40635,15 @@
         <v>0.0</v>
       </c>
       <c r="CZ126" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DA126" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B127" t="n">
         <v>0.0</v>
@@ -40576,12 +40952,15 @@
         <v>-3.0</v>
       </c>
       <c r="CZ127" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DA127" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B128" t="n">
         <v>0.0</v>
@@ -40891,11 +41270,14 @@
       </c>
       <c r="CZ128" t="n">
         <v>3.0</v>
+      </c>
+      <c r="DA128" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B129" t="n">
         <v>0.0</v>
@@ -41205,11 +41587,14 @@
       </c>
       <c r="CZ129" t="n">
         <v>19.0</v>
+      </c>
+      <c r="DA129" t="n">
+        <v>20.0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B130" t="n">
         <v>0.0</v>
@@ -41519,11 +41904,14 @@
       </c>
       <c r="CZ130" t="n">
         <v>6.0</v>
+      </c>
+      <c r="DA130" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B131" t="n">
         <v>0.0</v>
@@ -41833,11 +42221,14 @@
       </c>
       <c r="CZ131" t="n">
         <v>-2.0</v>
+      </c>
+      <c r="DA131" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B132" t="n">
         <v>0.0</v>
@@ -42147,11 +42538,14 @@
       </c>
       <c r="CZ132" t="n">
         <v>25.0</v>
+      </c>
+      <c r="DA132" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B133" t="n">
         <v>0.0</v>
@@ -42461,11 +42855,14 @@
       </c>
       <c r="CZ133" t="n">
         <v>8.0</v>
+      </c>
+      <c r="DA133" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B134" t="n">
         <v>0.0</v>
@@ -42774,12 +43171,15 @@
         <v>0.0</v>
       </c>
       <c r="CZ134" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DA134" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B135" t="n">
         <v>0.0</v>
@@ -43088,12 +43488,15 @@
         <v>0.0</v>
       </c>
       <c r="CZ135" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DA135" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B136" t="n">
         <v>0.0</v>
@@ -43403,11 +43806,14 @@
       </c>
       <c r="CZ136" t="n">
         <v>32.0</v>
+      </c>
+      <c r="DA136" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B137" t="n">
         <v>0.0</v>
@@ -43716,12 +44122,15 @@
         <v>-1.0</v>
       </c>
       <c r="CZ137" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="DA137" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B138" t="n">
         <v>0.0</v>
@@ -44030,12 +44439,15 @@
         <v>0.0</v>
       </c>
       <c r="CZ138" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DA138" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B139" t="n">
         <v>0.0</v>
@@ -44344,12 +44756,15 @@
         <v>0.0</v>
       </c>
       <c r="CZ139" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DA139" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B140" t="n">
         <v>0.0</v>
@@ -44659,11 +45074,14 @@
       </c>
       <c r="CZ140" t="n">
         <v>2.0</v>
+      </c>
+      <c r="DA140" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B141" t="n">
         <v>0.0</v>
@@ -44972,12 +45390,15 @@
         <v>1.0</v>
       </c>
       <c r="CZ141" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DA141" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B142" t="n">
         <v>0.0</v>
@@ -45287,11 +45708,14 @@
       </c>
       <c r="CZ142" t="n">
         <v>15.0</v>
+      </c>
+      <c r="DA142" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B143" t="n">
         <v>7.0</v>
@@ -45600,12 +46024,15 @@
         <v>2.0</v>
       </c>
       <c r="CZ143" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DA143" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B144" t="n">
         <v>0.0</v>
@@ -45914,12 +46341,15 @@
         <v>8.0</v>
       </c>
       <c r="CZ144" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DA144" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B145" t="n">
         <v>0.0</v>
@@ -46228,12 +46658,15 @@
         <v>0.0</v>
       </c>
       <c r="CZ145" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DA145" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B146" t="n">
         <v>0.0</v>
@@ -46543,11 +46976,14 @@
       </c>
       <c r="CZ146" t="n">
         <v>10.0</v>
+      </c>
+      <c r="DA146" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B147" t="n">
         <v>0.0</v>
@@ -46857,11 +47293,14 @@
       </c>
       <c r="CZ147" t="n">
         <v>20.0</v>
+      </c>
+      <c r="DA147" t="n">
+        <v>23.0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B148" t="n">
         <v>0.0</v>
@@ -47171,11 +47610,14 @@
       </c>
       <c r="CZ148" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DA148" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B149" t="n">
         <v>1.0</v>
@@ -47485,11 +47927,14 @@
       </c>
       <c r="CZ149" t="n">
         <v>4.0</v>
+      </c>
+      <c r="DA149" t="n">
+        <v>21.0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B150" t="n">
         <v>0.0</v>
@@ -47799,11 +48244,14 @@
       </c>
       <c r="CZ150" t="n">
         <v>7.0</v>
+      </c>
+      <c r="DA150" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B151" t="n">
         <v>0.0</v>
@@ -48113,11 +48561,14 @@
       </c>
       <c r="CZ151" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DA151" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B152" t="n">
         <v>0.0</v>
@@ -48427,11 +48878,14 @@
       </c>
       <c r="CZ152" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DA152" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B153" t="n">
         <v>0.0</v>
@@ -48741,11 +49195,14 @@
       </c>
       <c r="CZ153" t="n">
         <v>13.0</v>
+      </c>
+      <c r="DA153" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B154" t="n">
         <v>0.0</v>
@@ -49054,12 +49511,15 @@
         <v>0.0</v>
       </c>
       <c r="CZ154" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DA154" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B155" t="n">
         <v>0.0</v>
@@ -49368,12 +49828,15 @@
         <v>0.0</v>
       </c>
       <c r="CZ155" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DA155" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B156" t="n">
         <v>0.0</v>
@@ -49682,12 +50145,15 @@
         <v>0.0</v>
       </c>
       <c r="CZ156" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DA156" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B157" t="n">
         <v>0.0</v>
@@ -49996,12 +50462,15 @@
         <v>2.0</v>
       </c>
       <c r="CZ157" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DA157" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B158" t="n">
         <v>0.0</v>
@@ -50310,12 +50779,15 @@
         <v>0.0</v>
       </c>
       <c r="CZ158" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DA158" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B159" t="n">
         <v>0.0</v>
@@ -50625,11 +51097,14 @@
       </c>
       <c r="CZ159" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DA159" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B160" t="n">
         <v>0.0</v>
@@ -50939,11 +51414,14 @@
       </c>
       <c r="CZ160" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DA160" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B161" t="n">
         <v>0.0</v>
@@ -51253,11 +51731,14 @@
       </c>
       <c r="CZ161" t="n">
         <v>2.0</v>
+      </c>
+      <c r="DA161" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B162" t="n">
         <v>0.0</v>
@@ -51566,12 +52047,15 @@
         <v>3.0</v>
       </c>
       <c r="CZ162" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DA162" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B163" t="n">
         <v>0.0</v>
@@ -51880,12 +52364,15 @@
         <v>3.0</v>
       </c>
       <c r="CZ163" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DA163" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B164" t="n">
         <v>0.0</v>
@@ -52195,11 +52682,14 @@
       </c>
       <c r="CZ164" t="n">
         <v>4.0</v>
+      </c>
+      <c r="DA164" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B165" t="n">
         <v>0.0</v>
@@ -52508,12 +52998,15 @@
         <v>0.0</v>
       </c>
       <c r="CZ165" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DA165" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B166" t="n">
         <v>0.0</v>
@@ -52822,12 +53315,15 @@
         <v>0.0</v>
       </c>
       <c r="CZ166" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DA166" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B167" t="n">
         <v>0.0</v>
@@ -53137,11 +53633,14 @@
       </c>
       <c r="CZ167" t="n">
         <v>1.0</v>
+      </c>
+      <c r="DA167" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B168" t="n">
         <v>0.0</v>
@@ -53450,12 +53949,15 @@
         <v>0.0</v>
       </c>
       <c r="CZ168" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DA168" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B169" t="n">
         <v>0.0</v>
@@ -53765,11 +54267,14 @@
       </c>
       <c r="CZ169" t="n">
         <v>1.0</v>
+      </c>
+      <c r="DA169" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B170" t="n">
         <v>0.0</v>
@@ -54078,12 +54583,15 @@
         <v>0.0</v>
       </c>
       <c r="CZ170" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DA170" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B171" t="n">
         <v>0.0</v>
@@ -54392,12 +54900,15 @@
         <v>0.0</v>
       </c>
       <c r="CZ171" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DA171" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B172" t="n">
         <v>0.0</v>
@@ -54707,11 +55218,14 @@
       </c>
       <c r="CZ172" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DA172" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B173" t="n">
         <v>0.0</v>
@@ -55021,11 +55535,14 @@
       </c>
       <c r="CZ173" t="n">
         <v>168.0</v>
+      </c>
+      <c r="DA173" t="n">
+        <v>50.0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B174" t="n">
         <v>0.0</v>
@@ -55335,11 +55852,14 @@
       </c>
       <c r="CZ174" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DA174" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B175" t="n">
         <v>0.0</v>
@@ -55649,11 +56169,14 @@
       </c>
       <c r="CZ175" t="n">
         <v>3.0</v>
+      </c>
+      <c r="DA175" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B176" t="n">
         <v>0.0</v>
@@ -55962,12 +56485,15 @@
         <v>0.0</v>
       </c>
       <c r="CZ176" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DA176" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B177" t="n">
         <v>0.0</v>
@@ -56277,11 +56803,14 @@
       </c>
       <c r="CZ177" t="n">
         <v>5.0</v>
+      </c>
+      <c r="DA177" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B178" t="n">
         <v>0.0</v>
@@ -56590,12 +57119,15 @@
         <v>19.0</v>
       </c>
       <c r="CZ178" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DA178" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B179" t="n">
         <v>0.0</v>
@@ -56905,11 +57437,14 @@
       </c>
       <c r="CZ179" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DA179" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B180" t="n">
         <v>0.0</v>
@@ -57218,12 +57753,15 @@
         <v>0.0</v>
       </c>
       <c r="CZ180" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DA180" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B181" t="n">
         <v>23.0</v>
@@ -57533,11 +58071,14 @@
       </c>
       <c r="CZ181" t="n">
         <v>26.0</v>
+      </c>
+      <c r="DA181" t="n">
+        <v>25.0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B182" t="n">
         <v>0.0</v>
@@ -57846,12 +58387,15 @@
         <v>1.0</v>
       </c>
       <c r="CZ182" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DA182" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B183" t="n">
         <v>0.0</v>
@@ -58160,12 +58704,15 @@
         <v>1.0</v>
       </c>
       <c r="CZ183" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DA183" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B184" t="n">
         <v>0.0</v>
@@ -58474,12 +59021,15 @@
         <v>24.0</v>
       </c>
       <c r="CZ184" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DA184" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B185" t="n">
         <v>0.0</v>
@@ -58789,11 +59339,14 @@
       </c>
       <c r="CZ185" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DA185" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B186" t="n">
         <v>0.0</v>
@@ -59103,11 +59656,14 @@
       </c>
       <c r="CZ186" t="n">
         <v>6.0</v>
+      </c>
+      <c r="DA186" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B187" t="n">
         <v>0.0</v>
@@ -59417,11 +59973,14 @@
       </c>
       <c r="CZ187" t="n">
         <v>19.0</v>
+      </c>
+      <c r="DA187" t="n">
+        <v>20.0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B188" t="n">
         <v>0.0</v>
@@ -59730,12 +60289,15 @@
         <v>-1.0</v>
       </c>
       <c r="CZ188" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DA188" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B189" t="n">
         <v>0.0</v>
@@ -60045,11 +60607,14 @@
       </c>
       <c r="CZ189" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DA189" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B190" t="n">
         <v>0.0</v>
@@ -60358,12 +60923,15 @@
         <v>36.0</v>
       </c>
       <c r="CZ190" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DA190" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B191" t="n">
         <v>0.0</v>
@@ -60672,12 +61240,15 @@
         <v>0.0</v>
       </c>
       <c r="CZ191" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DA191" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B192" t="n">
         <v>0.0</v>
@@ -60987,11 +61558,14 @@
       </c>
       <c r="CZ192" t="n">
         <v>4.0</v>
+      </c>
+      <c r="DA192" t="n">
+        <v>-1.0</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B193" t="n">
         <v>0.0</v>
@@ -61301,11 +61875,14 @@
       </c>
       <c r="CZ193" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DA193" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B194" t="n">
         <v>0.0</v>
@@ -61614,12 +62191,15 @@
         <v>0.0</v>
       </c>
       <c r="CZ194" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DA194" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B195" t="n">
         <v>0.0</v>
@@ -61929,11 +62509,14 @@
       </c>
       <c r="CZ195" t="n">
         <v>-2.0</v>
+      </c>
+      <c r="DA195" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B196" t="n">
         <v>0.0</v>
@@ -62242,12 +62825,15 @@
         <v>0.0</v>
       </c>
       <c r="CZ196" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DA196" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B197" t="n">
         <v>0.0</v>
@@ -62556,12 +63142,15 @@
         <v>0.0</v>
       </c>
       <c r="CZ197" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="DA197" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B198" t="n">
         <v>0.0</v>
@@ -62871,11 +63460,14 @@
       </c>
       <c r="CZ198" t="n">
         <v>1.0</v>
+      </c>
+      <c r="DA198" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B199" t="n">
         <v>0.0</v>
@@ -63185,11 +63777,14 @@
       </c>
       <c r="CZ199" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DA199" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B200" t="n">
         <v>0.0</v>
@@ -63498,12 +64093,15 @@
         <v>0.0</v>
       </c>
       <c r="CZ200" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DA200" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B201" t="n">
         <v>0.0</v>
@@ -63812,12 +64410,15 @@
         <v>-2.0</v>
       </c>
       <c r="CZ201" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DA201" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B202" t="n">
         <v>0.0</v>
@@ -64127,11 +64728,14 @@
       </c>
       <c r="CZ202" t="n">
         <v>19.0</v>
+      </c>
+      <c r="DA202" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B203" t="n">
         <v>0.0</v>
@@ -64440,12 +65044,15 @@
         <v>2.0</v>
       </c>
       <c r="CZ203" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DA203" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B204" t="n">
         <v>0.0</v>
@@ -64755,11 +65362,14 @@
       </c>
       <c r="CZ204" t="n">
         <v>5.0</v>
+      </c>
+      <c r="DA204" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B205" t="n">
         <v>0.0</v>
@@ -65069,11 +65679,14 @@
       </c>
       <c r="CZ205" t="n">
         <v>7.0</v>
+      </c>
+      <c r="DA205" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B206" t="n">
         <v>0.0</v>
@@ -65382,12 +65995,15 @@
         <v>3.0</v>
       </c>
       <c r="CZ206" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DA206" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B207" t="n">
         <v>0.0</v>
@@ -65697,11 +66313,14 @@
       </c>
       <c r="CZ207" t="n">
         <v>4.0</v>
+      </c>
+      <c r="DA207" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B208" t="n">
         <v>0.0</v>
@@ -66010,12 +66629,15 @@
         <v>0.0</v>
       </c>
       <c r="CZ208" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DA208" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B209" t="n">
         <v>0.0</v>
@@ -66324,12 +66946,15 @@
         <v>0.0</v>
       </c>
       <c r="CZ209" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DA209" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B210" t="n">
         <v>0.0</v>
@@ -66638,12 +67263,15 @@
         <v>1.0</v>
       </c>
       <c r="CZ210" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DA210" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B211" t="n">
         <v>0.0</v>
@@ -66952,12 +67580,15 @@
         <v>0.0</v>
       </c>
       <c r="CZ211" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DA211" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B212" t="n">
         <v>0.0</v>
@@ -67267,11 +67898,14 @@
       </c>
       <c r="CZ212" t="n">
         <v>1.0</v>
+      </c>
+      <c r="DA212" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B213" t="n">
         <v>1.0</v>
@@ -67581,11 +68215,14 @@
       </c>
       <c r="CZ213" t="n">
         <v>1.0</v>
+      </c>
+      <c r="DA213" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B214" t="n">
         <v>0.0</v>
@@ -67894,12 +68531,15 @@
         <v>-1.0</v>
       </c>
       <c r="CZ214" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DA214" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B215" t="n">
         <v>0.0</v>
@@ -68209,11 +68849,14 @@
       </c>
       <c r="CZ215" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DA215" t="n">
+        <v>54.0</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B216" t="n">
         <v>0.0</v>
@@ -68522,12 +69165,15 @@
         <v>2.0</v>
       </c>
       <c r="CZ216" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DA216" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B217" t="n">
         <v>0.0</v>
@@ -68837,11 +69483,14 @@
       </c>
       <c r="CZ217" t="n">
         <v>15.0</v>
+      </c>
+      <c r="DA217" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B218" t="n">
         <v>0.0</v>
@@ -69151,11 +69800,14 @@
       </c>
       <c r="CZ218" t="n">
         <v>1.0</v>
+      </c>
+      <c r="DA218" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B219" t="n">
         <v>0.0</v>
@@ -69465,11 +70117,14 @@
       </c>
       <c r="CZ219" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DA219" t="n">
+        <v>-1.0</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B220" t="n">
         <v>0.0</v>
@@ -69778,12 +70433,15 @@
         <v>0.0</v>
       </c>
       <c r="CZ220" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DA220" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B221" t="n">
         <v>0.0</v>
@@ -70093,11 +70751,14 @@
       </c>
       <c r="CZ221" t="n">
         <v>2.0</v>
+      </c>
+      <c r="DA221" t="n">
+        <v>-1.0</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B222" t="n">
         <v>0.0</v>
@@ -70406,12 +71067,15 @@
         <v>4.0</v>
       </c>
       <c r="CZ222" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DA222" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B223" t="n">
         <v>178.0</v>
@@ -70721,11 +71385,14 @@
       </c>
       <c r="CZ223" t="n">
         <v>227.0</v>
+      </c>
+      <c r="DA223" t="n">
+        <v>240.0</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B224" t="n">
         <v>35.0</v>
@@ -71035,11 +71702,14 @@
       </c>
       <c r="CZ224" t="n">
         <v>23.0</v>
+      </c>
+      <c r="DA224" t="n">
+        <v>22.0</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B225" t="n">
         <v>0.0</v>
@@ -71348,12 +72018,15 @@
         <v>0.0</v>
       </c>
       <c r="CZ225" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DA225" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B226" t="n">
         <v>0.0</v>
@@ -71662,12 +72335,15 @@
         <v>0.0</v>
       </c>
       <c r="CZ226" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DA226" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B227" t="n">
         <v>0.0</v>
@@ -71976,12 +72652,15 @@
         <v>1.0</v>
       </c>
       <c r="CZ227" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DA227" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B228" t="n">
         <v>0.0</v>
@@ -72291,11 +72970,14 @@
       </c>
       <c r="CZ228" t="n">
         <v>5.0</v>
+      </c>
+      <c r="DA228" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B229" t="n">
         <v>38.0</v>
@@ -72605,11 +73287,14 @@
       </c>
       <c r="CZ229" t="n">
         <v>17.0</v>
+      </c>
+      <c r="DA229" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B230" t="n">
         <v>0.0</v>
@@ -72918,12 +73603,15 @@
         <v>0.0</v>
       </c>
       <c r="CZ230" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DA230" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B231" t="n">
         <v>0.0</v>
@@ -73232,12 +73920,15 @@
         <v>0.0</v>
       </c>
       <c r="CZ231" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DA231" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B232" t="n">
         <v>0.0</v>
@@ -73547,11 +74238,14 @@
       </c>
       <c r="CZ232" t="n">
         <v>1.0</v>
+      </c>
+      <c r="DA232" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B233" t="n">
         <v>0.0</v>
@@ -73861,11 +74555,14 @@
       </c>
       <c r="CZ233" t="n">
         <v>9.0</v>
+      </c>
+      <c r="DA233" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B234" t="n">
         <v>0.0</v>
@@ -74175,11 +74872,14 @@
       </c>
       <c r="CZ234" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DA234" t="n">
+        <v>-7.0</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B235" t="n">
         <v>0.0</v>
@@ -74489,11 +75189,14 @@
       </c>
       <c r="CZ235" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DA235" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B236" t="n">
         <v>0.0</v>
@@ -74802,12 +75505,15 @@
         <v>0.0</v>
       </c>
       <c r="CZ236" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DA236" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B237" t="n">
         <v>0.0</v>
@@ -75117,11 +75823,14 @@
       </c>
       <c r="CZ237" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DA237" t="n">
+        <v>21.0</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B238" t="n">
         <v>0.0</v>
@@ -75430,12 +76139,15 @@
         <v>0.0</v>
       </c>
       <c r="CZ238" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DA238" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B239" t="n">
         <v>3.0</v>
@@ -75745,11 +76457,14 @@
       </c>
       <c r="CZ239" t="n">
         <v>10.0</v>
+      </c>
+      <c r="DA239" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B240" t="n">
         <v>0.0</v>
@@ -76058,12 +76773,15 @@
         <v>2.0</v>
       </c>
       <c r="CZ240" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="DA240" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B241" t="n">
         <v>0.0</v>
@@ -76373,11 +77091,14 @@
       </c>
       <c r="CZ241" t="n">
         <v>6.0</v>
+      </c>
+      <c r="DA241" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B242" t="n">
         <v>0.0</v>
@@ -76687,11 +77408,14 @@
       </c>
       <c r="CZ242" t="n">
         <v>10.0</v>
+      </c>
+      <c r="DA242" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B243" t="n">
         <v>0.0</v>
@@ -77000,12 +77724,15 @@
         <v>0.0</v>
       </c>
       <c r="CZ243" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DA243" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B244" t="n">
         <v>0.0</v>
@@ -77315,11 +78042,14 @@
       </c>
       <c r="CZ244" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DA244" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B245" t="n">
         <v>0.0</v>
@@ -77628,12 +78358,15 @@
         <v>0.0</v>
       </c>
       <c r="CZ245" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DA245" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B246" t="n">
         <v>0.0</v>
@@ -77942,12 +78675,15 @@
         <v>0.0</v>
       </c>
       <c r="CZ246" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DA246" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B247" t="n">
         <v>0.0</v>
@@ -78256,12 +78992,15 @@
         <v>0.0</v>
       </c>
       <c r="CZ247" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DA247" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B248" t="n">
         <v>0.0</v>
@@ -78571,11 +79310,14 @@
       </c>
       <c r="CZ248" t="n">
         <v>5.0</v>
+      </c>
+      <c r="DA248" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B249" t="n">
         <v>0.0</v>
@@ -78885,11 +79627,14 @@
       </c>
       <c r="CZ249" t="n">
         <v>74.0</v>
+      </c>
+      <c r="DA249" t="n">
+        <v>41.0</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B250" t="n">
         <v>0.0</v>
@@ -79199,11 +79944,14 @@
       </c>
       <c r="CZ250" t="n">
         <v>5.0</v>
+      </c>
+      <c r="DA250" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B251" t="n">
         <v>0.0</v>
@@ -79512,12 +80260,15 @@
         <v>0.0</v>
       </c>
       <c r="CZ251" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DA251" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B252" t="n">
         <v>0.0</v>
@@ -79827,11 +80578,14 @@
       </c>
       <c r="CZ252" t="n">
         <v>9.0</v>
+      </c>
+      <c r="DA252" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B253" t="n">
         <v>0.0</v>
@@ -80141,11 +80895,14 @@
       </c>
       <c r="CZ253" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DA253" t="n">
+        <v>18.0</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B254" t="n">
         <v>0.0</v>
@@ -80454,12 +81211,15 @@
         <v>0.0</v>
       </c>
       <c r="CZ254" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DA254" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B255" t="n">
         <v>0.0</v>
@@ -80768,12 +81528,15 @@
         <v>0.0</v>
       </c>
       <c r="CZ255" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DA255" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B256" t="n">
         <v>0.0</v>
@@ -81083,11 +81846,14 @@
       </c>
       <c r="CZ256" t="n">
         <v>2.0</v>
+      </c>
+      <c r="DA256" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B257" t="n">
         <v>0.0</v>
@@ -81397,11 +82163,14 @@
       </c>
       <c r="CZ257" t="n">
         <v>5.0</v>
+      </c>
+      <c r="DA257" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B258"/>
       <c r="C258"/>
@@ -81506,10 +82275,11 @@
       <c r="CX258"/>
       <c r="CY258"/>
       <c r="CZ258"/>
+      <c r="DA258"/>
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B259"/>
       <c r="C259"/>
@@ -81614,6 +82384,7 @@
       <c r="CX259"/>
       <c r="CY259"/>
       <c r="CZ259"/>
+      <c r="DA259"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
